--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>0.04461491538199999</v>
+        <v>0.04605347109266667</v>
       </c>
       <c r="R2">
-        <v>0.267689492292</v>
+        <v>0.276320826556</v>
       </c>
       <c r="S2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="T2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>0.2486705862257777</v>
+        <v>0.2486705862257778</v>
       </c>
       <c r="R3">
-        <v>2.238035276031999</v>
+        <v>2.238035276032</v>
       </c>
       <c r="S3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="T3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.004076294500666666</v>
+        <v>0.001288151818444444</v>
       </c>
       <c r="R4">
-        <v>0.03668665050599999</v>
+        <v>0.011593366366</v>
       </c>
       <c r="S4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="T4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>0.1887374480076666</v>
+        <v>0.09103655908733332</v>
       </c>
       <c r="R5">
-        <v>1.132424688046</v>
+        <v>0.5462193545239999</v>
       </c>
       <c r="S5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="T5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>0.0286019959831111</v>
+        <v>0.002541943102888889</v>
       </c>
       <c r="R6">
-        <v>0.257417963848</v>
+        <v>0.022877487926</v>
       </c>
       <c r="S6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="T6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.00638073773422222</v>
+        <v>0.002549459239111111</v>
       </c>
       <c r="R7">
-        <v>0.05742663960799999</v>
+        <v>0.022945133152</v>
       </c>
       <c r="S7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="T7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
     </row>
   </sheetData>
